--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_7_7.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_7_7.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-91989.55041322313</v>
+        <v>-91972.95867545136</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>21023756.9207782</v>
+        <v>18876161.02893123</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>27049826.7140035</v>
+        <v>24669128.94555683</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-5.300365916305273e-11</v>
+        <v>1305094.213999053</v>
       </c>
     </row>
     <row r="11">
@@ -7976,31 +7978,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>102.5176150018526</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8052,34 +8054,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>15.79616555179249</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8134,28 +8136,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>52.4725364634484</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>83.85861781084799</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>87.67503958280489</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>90.30175956594327</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>82.99560390240157</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>89.9967499936978</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>89.52320263194594</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>98.47825105913979</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,7 +8215,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -8225,7 +8227,7 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
@@ -8234,10 +8236,10 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>102.5176150018526</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8289,10 +8291,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8304,7 +8306,7 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -8316,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8371,10 +8373,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>52.4725364634484</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>83.85861781084799</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -8383,16 +8385,16 @@
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>82.99560390240157</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>89.52320263194594</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>98.47825105913979</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8450,10 +8452,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -8462,19 +8464,19 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>102.5176150018526</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8687,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -8699,7 +8701,7 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -8708,10 +8710,10 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>102.5176150018526</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8924,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -8945,10 +8947,10 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>102.5176150018526</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9000,16 +9002,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9021,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9082,28 +9084,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>52.4725364634484</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>83.85861781084799</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>87.67503958280489</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>90.30175956594327</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>82.99560390240157</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>89.9967499936978</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>89.52320263194594</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>98.47825105913979</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9161,10 +9163,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -9182,10 +9184,10 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>102.5176150018526</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9237,10 +9239,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9261,10 +9263,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9319,10 +9321,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>52.4725364634484</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>83.85861781084799</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -9337,10 +9339,10 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>89.52320263194594</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>98.47825105913979</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9419,10 +9421,10 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>102.5176150018526</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9474,10 +9476,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9489,7 +9491,7 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -9501,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9556,25 +9558,25 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>52.4725364634484</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>83.85861781084799</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>87.67503958280489</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>90.30175956594327</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>89.9967499936978</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>89.52320263194594</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -9635,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9656,10 +9658,10 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>102.5176150018526</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9711,16 +9713,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9735,10 +9737,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9793,28 +9795,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>52.4725364634484</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>83.85861781084799</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>87.67503958280489</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>90.30175956594327</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>82.99560390240157</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>89.9967499936978</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>89.52320263194594</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>98.47825105913979</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9896,7 +9898,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>102.5176150018526</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9948,16 +9950,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9972,10 +9974,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10030,16 +10032,16 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>52.4725364634484</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>83.85861781084799</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>87.67503958280489</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>90.30175956594327</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
@@ -10048,10 +10050,10 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>89.52320263194594</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>98.47825105913979</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10109,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10133,7 +10135,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>102.5176150018526</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10185,16 +10187,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10212,7 +10214,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10267,19 +10269,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>52.4725364634484</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>87.67503958280489</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>82.99560390240157</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
@@ -10288,7 +10290,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>98.47825105913979</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10346,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -10367,10 +10369,10 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>102.5176150018526</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10422,16 +10424,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10443,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10504,28 +10506,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>52.4725364634484</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>83.85861781084799</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>87.67503958280489</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>90.30175956594327</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>82.99560390240157</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>89.9967499936978</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>89.52320263194594</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>98.47825105913979</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10583,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -10604,10 +10606,10 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>102.5176150018526</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10659,13 +10661,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10680,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10741,28 +10743,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>52.4725364634484</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>87.67503958280489</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>90.30175956594327</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>82.99560390240157</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>89.9967499936978</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>89.52320263194594</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>98.47825105913979</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10896,34 +10898,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10978,28 +10980,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>52.4725364634484</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>83.85861781084799</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>87.67503958280489</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>90.30175956594327</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>82.99560390240157</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>89.9967499936978</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>89.52320263194594</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>98.47825105913979</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11078,10 +11080,10 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>102.5176150018526</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11133,16 +11135,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11154,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11218,25 +11220,25 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>83.85861781084799</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>87.67503958280489</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>90.30175956594327</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>82.99560390240157</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>89.9967499936978</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>89.52320263194594</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>98.47825105913979</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11397,7 +11399,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11452,10 +11454,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>52.4725364634484</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>51.88619524178843</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -11470,10 +11472,10 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>56.23986070246484</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>75.43459031707346</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -22568,31 +22570,31 @@
         <v>136.9537457384598</v>
       </c>
       <c r="J2" t="n">
-        <v>117.6798379423461</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>143.0584031792374</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>153.2481697304917</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>149.7250515977273</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>149.1184913377841</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>149.5638374240964</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>150.3014472409252</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>144.4986984183922</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>140.1305995791859</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
         <v>164.8484195083599</v>
@@ -22644,34 +22646,34 @@
         <v>87.41444223540508</v>
       </c>
       <c r="I3" t="n">
-        <v>64.689547</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J3" t="n">
-        <v>82.44445733333335</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>89.59693533333335</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>90.06034685691823</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>92.38712204931191</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>85.37211285416666</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>92.68755888888889</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>87.08336481931465</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.98815315591399</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>94.69167757657658</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S3" t="n">
         <v>133.5813703291298</v>
@@ -22726,28 +22728,28 @@
         <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
-        <v>82.54702393560747</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K4" t="n">
-        <v>83.85861781084799</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>87.67503958280489</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>90.30175956594327</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>82.99560390240157</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>89.9967499936978</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>89.52320263194594</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>98.47825105913979</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>122.6619794737488</v>
@@ -22805,7 +22807,7 @@
         <v>136.9537457384598</v>
       </c>
       <c r="J5" t="n">
-        <v>117.6798379423461</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>143.0584031792374</v>
@@ -22817,7 +22819,7 @@
         <v>149.7250515977273</v>
       </c>
       <c r="N5" t="n">
-        <v>149.1184913377841</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
         <v>149.5638374240964</v>
@@ -22826,10 +22828,10 @@
         <v>150.3014472409252</v>
       </c>
       <c r="Q5" t="n">
-        <v>144.4986984183922</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>140.1305995791859</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
         <v>164.8484195083599</v>
@@ -22881,10 +22883,10 @@
         <v>87.41444223540508</v>
       </c>
       <c r="I6" t="n">
-        <v>64.689547</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J6" t="n">
-        <v>82.44445733333335</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>89.59693533333335</v>
@@ -22896,7 +22898,7 @@
         <v>92.38712204931191</v>
       </c>
       <c r="N6" t="n">
-        <v>85.37211285416666</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>92.68755888888889</v>
@@ -22908,7 +22910,7 @@
         <v>90.98815315591399</v>
       </c>
       <c r="R6" t="n">
-        <v>94.69167757657658</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S6" t="n">
         <v>133.5813703291298</v>
@@ -22963,10 +22965,10 @@
         <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
-        <v>82.54702393560747</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K7" t="n">
-        <v>83.85861781084799</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>87.67503958280489</v>
@@ -22975,16 +22977,16 @@
         <v>90.30175956594327</v>
       </c>
       <c r="N7" t="n">
-        <v>82.99560390240157</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
         <v>89.9967499936978</v>
       </c>
       <c r="P7" t="n">
-        <v>89.52320263194594</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>98.47825105913979</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>122.6619794737488</v>
@@ -23042,10 +23044,10 @@
         <v>136.9537457384598</v>
       </c>
       <c r="J8" t="n">
-        <v>117.6798379423461</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>143.0584031792374</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>153.2481697304917</v>
@@ -23054,19 +23056,19 @@
         <v>149.7250515977273</v>
       </c>
       <c r="N8" t="n">
-        <v>149.1184913377841</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>149.5638374240964</v>
       </c>
       <c r="P8" t="n">
-        <v>150.3014472409252</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>144.4986984183922</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>140.1305995791859</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
         <v>164.8484195083599</v>
@@ -23279,7 +23281,7 @@
         <v>136.9537457384598</v>
       </c>
       <c r="J11" t="n">
-        <v>117.6798379423461</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>143.0584031792374</v>
@@ -23291,7 +23293,7 @@
         <v>149.7250515977273</v>
       </c>
       <c r="N11" t="n">
-        <v>149.1184913377841</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>149.5638374240964</v>
@@ -23300,10 +23302,10 @@
         <v>150.3014472409252</v>
       </c>
       <c r="Q11" t="n">
-        <v>144.4986984183922</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>140.1305995791859</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
         <v>164.8484195083599</v>
@@ -23516,7 +23518,7 @@
         <v>136.9537457384598</v>
       </c>
       <c r="J14" t="n">
-        <v>117.6798379423461</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>143.0584031792374</v>
@@ -23537,10 +23539,10 @@
         <v>150.3014472409252</v>
       </c>
       <c r="Q14" t="n">
-        <v>144.4986984183922</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>140.1305995791859</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
         <v>164.8484195083599</v>
@@ -23592,16 +23594,16 @@
         <v>87.41444223540508</v>
       </c>
       <c r="I15" t="n">
-        <v>64.689547</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J15" t="n">
-        <v>82.44445733333335</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>89.59693533333335</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>90.06034685691823</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>92.38712204931191</v>
@@ -23613,13 +23615,13 @@
         <v>92.68755888888889</v>
       </c>
       <c r="P15" t="n">
-        <v>87.08336481931465</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>90.98815315591399</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>94.69167757657658</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S15" t="n">
         <v>133.5813703291298</v>
@@ -23674,28 +23676,28 @@
         <v>131.7634811092929</v>
       </c>
       <c r="J16" t="n">
-        <v>82.54702393560747</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K16" t="n">
-        <v>83.85861781084799</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>87.67503958280489</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>90.30175956594327</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>82.99560390240157</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>89.9967499936978</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>89.52320263194594</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>98.47825105913979</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>122.6619794737488</v>
@@ -23753,10 +23755,10 @@
         <v>136.9537457384598</v>
       </c>
       <c r="J17" t="n">
-        <v>117.6798379423461</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>143.0584031792374</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>153.2481697304917</v>
@@ -23774,10 +23776,10 @@
         <v>150.3014472409252</v>
       </c>
       <c r="Q17" t="n">
-        <v>144.4986984183922</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>140.1305995791859</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S17" t="n">
         <v>164.8484195083599</v>
@@ -23829,10 +23831,10 @@
         <v>87.41444223540508</v>
       </c>
       <c r="I18" t="n">
-        <v>64.689547</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J18" t="n">
-        <v>82.44445733333335</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>89.59693533333335</v>
@@ -23853,10 +23855,10 @@
         <v>87.08336481931465</v>
       </c>
       <c r="Q18" t="n">
-        <v>90.98815315591399</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>94.69167757657658</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S18" t="n">
         <v>133.5813703291298</v>
@@ -23911,10 +23913,10 @@
         <v>131.7634811092929</v>
       </c>
       <c r="J19" t="n">
-        <v>82.54702393560747</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K19" t="n">
-        <v>83.85861781084799</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
         <v>87.67503958280489</v>
@@ -23929,10 +23931,10 @@
         <v>89.9967499936978</v>
       </c>
       <c r="P19" t="n">
-        <v>89.52320263194594</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>98.47825105913979</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>122.6619794737488</v>
@@ -24011,10 +24013,10 @@
         <v>150.3014472409252</v>
       </c>
       <c r="Q20" t="n">
-        <v>144.4986984183922</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>140.1305995791859</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S20" t="n">
         <v>164.8484195083599</v>
@@ -24066,10 +24068,10 @@
         <v>87.41444223540508</v>
       </c>
       <c r="I21" t="n">
-        <v>64.689547</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J21" t="n">
-        <v>82.44445733333335</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>89.59693533333335</v>
@@ -24081,7 +24083,7 @@
         <v>92.38712204931191</v>
       </c>
       <c r="N21" t="n">
-        <v>85.37211285416666</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>92.68755888888889</v>
@@ -24093,7 +24095,7 @@
         <v>90.98815315591399</v>
       </c>
       <c r="R21" t="n">
-        <v>94.69167757657658</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S21" t="n">
         <v>133.5813703291298</v>
@@ -24148,25 +24150,25 @@
         <v>131.7634811092929</v>
       </c>
       <c r="J22" t="n">
-        <v>82.54702393560747</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K22" t="n">
-        <v>83.85861781084799</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>87.67503958280489</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>90.30175956594327</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
         <v>82.99560390240157</v>
       </c>
       <c r="O22" t="n">
-        <v>89.9967499936978</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>89.52320263194594</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
         <v>98.47825105913979</v>
@@ -24227,7 +24229,7 @@
         <v>136.9537457384598</v>
       </c>
       <c r="J23" t="n">
-        <v>117.6798379423461</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>143.0584031792374</v>
@@ -24248,10 +24250,10 @@
         <v>150.3014472409252</v>
       </c>
       <c r="Q23" t="n">
-        <v>144.4986984183922</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>140.1305995791859</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S23" t="n">
         <v>164.8484195083599</v>
@@ -24303,16 +24305,16 @@
         <v>87.41444223540508</v>
       </c>
       <c r="I24" t="n">
-        <v>64.689547</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J24" t="n">
-        <v>82.44445733333335</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>89.59693533333335</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>90.06034685691823</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>92.38712204931191</v>
@@ -24327,10 +24329,10 @@
         <v>87.08336481931465</v>
       </c>
       <c r="Q24" t="n">
-        <v>90.98815315591399</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>94.69167757657658</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S24" t="n">
         <v>133.5813703291298</v>
@@ -24385,28 +24387,28 @@
         <v>131.7634811092929</v>
       </c>
       <c r="J25" t="n">
-        <v>82.54702393560747</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K25" t="n">
-        <v>83.85861781084799</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>87.67503958280489</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>90.30175956594327</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>82.99560390240157</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>89.9967499936978</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>89.52320263194594</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>98.47825105913979</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>122.6619794737488</v>
@@ -24488,7 +24490,7 @@
         <v>144.4986984183922</v>
       </c>
       <c r="R26" t="n">
-        <v>140.1305995791859</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S26" t="n">
         <v>164.8484195083599</v>
@@ -24540,16 +24542,16 @@
         <v>87.41444223540508</v>
       </c>
       <c r="I27" t="n">
-        <v>64.689547</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J27" t="n">
-        <v>82.44445733333335</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>89.59693533333335</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>90.06034685691823</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>92.38712204931191</v>
@@ -24564,10 +24566,10 @@
         <v>87.08336481931465</v>
       </c>
       <c r="Q27" t="n">
-        <v>90.98815315591399</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>94.69167757657658</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S27" t="n">
         <v>133.5813703291298</v>
@@ -24622,16 +24624,16 @@
         <v>131.7634811092929</v>
       </c>
       <c r="J28" t="n">
-        <v>82.54702393560747</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K28" t="n">
-        <v>83.85861781084799</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>87.67503958280489</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>90.30175956594327</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
         <v>82.99560390240157</v>
@@ -24640,10 +24642,10 @@
         <v>89.9967499936978</v>
       </c>
       <c r="P28" t="n">
-        <v>89.52320263194594</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>98.47825105913979</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>122.6619794737488</v>
@@ -24701,7 +24703,7 @@
         <v>136.9537457384598</v>
       </c>
       <c r="J29" t="n">
-        <v>117.6798379423461</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>143.0584031792374</v>
@@ -24725,7 +24727,7 @@
         <v>144.4986984183922</v>
       </c>
       <c r="R29" t="n">
-        <v>140.1305995791859</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S29" t="n">
         <v>164.8484195083599</v>
@@ -24777,16 +24779,16 @@
         <v>87.41444223540508</v>
       </c>
       <c r="I30" t="n">
-        <v>64.689547</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J30" t="n">
-        <v>82.44445733333335</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>89.59693533333335</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>90.06034685691823</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>92.38712204931191</v>
@@ -24804,7 +24806,7 @@
         <v>90.98815315591399</v>
       </c>
       <c r="R30" t="n">
-        <v>94.69167757657658</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S30" t="n">
         <v>133.5813703291298</v>
@@ -24859,19 +24861,19 @@
         <v>131.7634811092929</v>
       </c>
       <c r="J31" t="n">
-        <v>82.54702393560747</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K31" t="n">
         <v>83.85861781084799</v>
       </c>
       <c r="L31" t="n">
-        <v>87.67503958280489</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
         <v>90.30175956594327</v>
       </c>
       <c r="N31" t="n">
-        <v>82.99560390240157</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
         <v>89.9967499936978</v>
@@ -24880,7 +24882,7 @@
         <v>89.52320263194594</v>
       </c>
       <c r="Q31" t="n">
-        <v>98.47825105913979</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>122.6619794737488</v>
@@ -24938,7 +24940,7 @@
         <v>136.9537457384598</v>
       </c>
       <c r="J32" t="n">
-        <v>117.6798379423461</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>143.0584031792374</v>
@@ -24959,10 +24961,10 @@
         <v>150.3014472409252</v>
       </c>
       <c r="Q32" t="n">
-        <v>144.4986984183922</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>140.1305995791859</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
         <v>164.8484195083599</v>
@@ -25014,16 +25016,16 @@
         <v>87.41444223540508</v>
       </c>
       <c r="I33" t="n">
-        <v>64.689547</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J33" t="n">
-        <v>82.44445733333335</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>89.59693533333335</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>90.06034685691823</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>92.38712204931191</v>
@@ -25035,13 +25037,13 @@
         <v>92.68755888888889</v>
       </c>
       <c r="P33" t="n">
-        <v>87.08336481931465</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>90.98815315591399</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>94.69167757657658</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S33" t="n">
         <v>133.5813703291298</v>
@@ -25096,28 +25098,28 @@
         <v>131.7634811092929</v>
       </c>
       <c r="J34" t="n">
-        <v>82.54702393560747</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K34" t="n">
-        <v>83.85861781084799</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>87.67503958280489</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>90.30175956594327</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>82.99560390240157</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>89.9967499936978</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>89.52320263194594</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>98.47825105913979</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>122.6619794737488</v>
@@ -25175,7 +25177,7 @@
         <v>136.9537457384598</v>
       </c>
       <c r="J35" t="n">
-        <v>117.6798379423461</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>143.0584031792374</v>
@@ -25196,10 +25198,10 @@
         <v>150.3014472409252</v>
       </c>
       <c r="Q35" t="n">
-        <v>144.4986984183922</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>140.1305995791859</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S35" t="n">
         <v>164.8484195083599</v>
@@ -25251,13 +25253,13 @@
         <v>87.41444223540508</v>
       </c>
       <c r="I36" t="n">
-        <v>64.689547</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J36" t="n">
-        <v>82.44445733333335</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>89.59693533333335</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>90.06034685691823</v>
@@ -25272,13 +25274,13 @@
         <v>92.68755888888889</v>
       </c>
       <c r="P36" t="n">
-        <v>87.08336481931465</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>90.98815315591399</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>94.69167757657658</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S36" t="n">
         <v>133.5813703291298</v>
@@ -25333,28 +25335,28 @@
         <v>131.7634811092929</v>
       </c>
       <c r="J37" t="n">
-        <v>82.54702393560747</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K37" t="n">
         <v>83.85861781084799</v>
       </c>
       <c r="L37" t="n">
-        <v>87.67503958280489</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>90.30175956594327</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>82.99560390240157</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>89.9967499936978</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>89.52320263194594</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>98.47825105913979</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>122.6619794737488</v>
@@ -25488,34 +25490,34 @@
         <v>87.41444223540508</v>
       </c>
       <c r="I39" t="n">
-        <v>64.689547</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J39" t="n">
         <v>82.44445733333335</v>
       </c>
       <c r="K39" t="n">
-        <v>89.59693533333335</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>90.06034685691823</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>92.38712204931191</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>85.37211285416666</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>92.68755888888889</v>
       </c>
       <c r="P39" t="n">
-        <v>87.08336481931465</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>90.98815315591399</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>94.69167757657658</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S39" t="n">
         <v>133.5813703291298</v>
@@ -25570,28 +25572,28 @@
         <v>131.7634811092929</v>
       </c>
       <c r="J40" t="n">
-        <v>82.54702393560747</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K40" t="n">
-        <v>83.85861781084799</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>87.67503958280489</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>90.30175956594327</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>82.99560390240157</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>89.9967499936978</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>89.52320263194594</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>98.47825105913979</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>122.6619794737488</v>
@@ -25670,10 +25672,10 @@
         <v>150.3014472409252</v>
       </c>
       <c r="Q41" t="n">
-        <v>144.4986984183922</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>140.1305995791859</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S41" t="n">
         <v>164.8484195083599</v>
@@ -25725,16 +25727,16 @@
         <v>87.41444223540508</v>
       </c>
       <c r="I42" t="n">
-        <v>64.689547</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J42" t="n">
         <v>82.44445733333335</v>
       </c>
       <c r="K42" t="n">
-        <v>89.59693533333335</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>90.06034685691823</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>92.38712204931191</v>
@@ -25746,13 +25748,13 @@
         <v>92.68755888888889</v>
       </c>
       <c r="P42" t="n">
-        <v>87.08336481931465</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>90.98815315591399</v>
       </c>
       <c r="R42" t="n">
-        <v>94.69167757657658</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S42" t="n">
         <v>133.5813703291298</v>
@@ -25810,25 +25812,25 @@
         <v>82.54702393560747</v>
       </c>
       <c r="K43" t="n">
-        <v>83.85861781084799</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>87.67503958280489</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>90.30175956594327</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>82.99560390240157</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>89.9967499936978</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>89.52320263194594</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>98.47825105913979</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>122.6619794737488</v>
@@ -25877,49 +25879,49 @@
         <v>412.725494085322</v>
       </c>
       <c r="G44" t="n">
-        <v>409.0311279568768</v>
+        <v>408.4176323798642</v>
       </c>
       <c r="H44" t="n">
-        <v>320.8422199291742</v>
+        <v>314.5592583510934</v>
       </c>
       <c r="I44" t="n">
-        <v>136.9537457384598</v>
+        <v>113.3019575056797</v>
       </c>
       <c r="J44" t="n">
-        <v>117.6798379423461</v>
+        <v>65.61016771286884</v>
       </c>
       <c r="K44" t="n">
-        <v>143.0584031792374</v>
+        <v>65.01946517481471</v>
       </c>
       <c r="L44" t="n">
-        <v>153.2481697304917</v>
+        <v>56.4339664610682</v>
       </c>
       <c r="M44" t="n">
-        <v>149.7250515977273</v>
+        <v>42.00059636060509</v>
       </c>
       <c r="N44" t="n">
-        <v>149.1184913377841</v>
+        <v>39.65094179247474</v>
       </c>
       <c r="O44" t="n">
-        <v>149.5638374240964</v>
+        <v>46.19673452270656</v>
       </c>
       <c r="P44" t="n">
-        <v>150.3014472409252</v>
+        <v>62.08001639703511</v>
       </c>
       <c r="Q44" t="n">
-        <v>144.4986984183922</v>
+        <v>78.24807792626756</v>
       </c>
       <c r="R44" t="n">
-        <v>140.1305995791859</v>
+        <v>101.5931080396651</v>
       </c>
       <c r="S44" t="n">
-        <v>164.8484195083599</v>
+        <v>150.8683890471842</v>
       </c>
       <c r="T44" t="n">
-        <v>221.2655964161775</v>
+        <v>218.5800195278046</v>
       </c>
       <c r="U44" t="n">
-        <v>253.1952022697474</v>
+        <v>253.1461226235864</v>
       </c>
       <c r="V44" t="n">
         <v>338.6857412035168</v>
@@ -25956,49 +25958,49 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G45" t="n">
-        <v>118.8592197488542</v>
+        <v>118.5309706766818</v>
       </c>
       <c r="H45" t="n">
-        <v>87.41444223540508</v>
+        <v>84.24424724889813</v>
       </c>
       <c r="I45" t="n">
-        <v>64.689547</v>
+        <v>53.38798903266146</v>
       </c>
       <c r="J45" t="n">
-        <v>82.44445733333335</v>
+        <v>51.43211845760855</v>
       </c>
       <c r="K45" t="n">
-        <v>89.59693533333335</v>
+        <v>36.59190862205906</v>
       </c>
       <c r="L45" t="n">
-        <v>90.06034685691823</v>
+        <v>18.78854721703357</v>
       </c>
       <c r="M45" t="n">
-        <v>92.38712204931191</v>
+        <v>9.216293543178466</v>
       </c>
       <c r="N45" t="n">
-        <v>85.37211285416666</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>92.68755888888889</v>
+        <v>14.58875442338393</v>
       </c>
       <c r="P45" t="n">
-        <v>87.08336481931465</v>
+        <v>24.40218892352032</v>
       </c>
       <c r="Q45" t="n">
-        <v>90.98815315591399</v>
+        <v>49.08744703089221</v>
       </c>
       <c r="R45" t="n">
-        <v>94.69167757657658</v>
+        <v>3.297636417967762</v>
       </c>
       <c r="S45" t="n">
-        <v>133.5813703291298</v>
+        <v>127.4842877824192</v>
       </c>
       <c r="T45" t="n">
-        <v>175.2139736830806</v>
+        <v>173.8908995719998</v>
       </c>
       <c r="U45" t="n">
-        <v>207.9625118881446</v>
+        <v>207.940916554449</v>
       </c>
       <c r="V45" t="n">
         <v>220.3146016126436</v>
@@ -26035,49 +26037,49 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G46" t="n">
-        <v>166.5715133615489</v>
+        <v>166.2963203660406</v>
       </c>
       <c r="H46" t="n">
-        <v>153.923765528121</v>
+        <v>151.4770496226014</v>
       </c>
       <c r="I46" t="n">
-        <v>131.7634811092929</v>
+        <v>123.4876772080058</v>
       </c>
       <c r="J46" t="n">
-        <v>82.54702393560747</v>
+        <v>10.61834268971961</v>
       </c>
       <c r="K46" t="n">
-        <v>83.85861781084799</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>87.67503958280489</v>
+        <v>46.76134641422896</v>
       </c>
       <c r="M46" t="n">
-        <v>90.30175956594327</v>
+        <v>47.16400664275908</v>
       </c>
       <c r="N46" t="n">
-        <v>82.99560390240157</v>
+        <v>40.88357032611205</v>
       </c>
       <c r="O46" t="n">
-        <v>89.9967499936978</v>
+        <v>51.0994709558466</v>
       </c>
       <c r="P46" t="n">
-        <v>89.52320263194594</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>98.47825105913979</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>122.6619794737488</v>
+        <v>110.2883016938921</v>
       </c>
       <c r="S46" t="n">
-        <v>200.7879229792761</v>
+        <v>195.9920595939172</v>
       </c>
       <c r="T46" t="n">
-        <v>233.3618613134482</v>
+        <v>232.1860366962762</v>
       </c>
       <c r="U46" t="n">
-        <v>282.5844038405181</v>
+        <v>282.5693933134903</v>
       </c>
       <c r="V46" t="n">
         <v>263.319551727384</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-4.583853296935558e-12</v>
+        <v>263009.8007520669</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-4.583853296935558e-12</v>
+        <v>107575.4539424646</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-4.583853296935558e-12</v>
+        <v>112439.4068916909</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-4.583853296935558e-12</v>
+        <v>71574.37972816218</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-4.583853296935558e-12</v>
+        <v>118267.0033615934</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-4.583853296935558e-12</v>
+        <v>103662.1784884678</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-4.583853296935558e-12</v>
+        <v>74043.4338293405</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-4.583853296935558e-12</v>
+        <v>111805.4176920003</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>-4.583853296935558e-12</v>
+        <v>68018.26871331336</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>-4.583853296935558e-12</v>
+        <v>70070.85417804724</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>-4.583853296935558e-12</v>
+        <v>118267.0033615934</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>-4.583853296935558e-12</v>
+        <v>108062.4636767545</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>-4.583853296935558e-12</v>
+        <v>74537.18597248939</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>-4.583853296935558e-12</v>
+        <v>86801.65570645771</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>-4.583853296935558e-12</v>
+        <v>162036.8002562558</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>26300.98007520668</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>10757.54539424647</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>11243.94068916909</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>7157.437972816224</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>11826.70033615936</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>10366.21784884679</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>7404.343382934054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>11180.54176920004</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>6801.826871331336</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>7007.085417804728</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>11826.70033615936</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>10806.24636767546</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>7453.71859724894</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>8680.165570645775</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>17835.39316182352</v>
       </c>
     </row>
     <row r="3">
@@ -26405,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>101571.5731262354</v>
       </c>
     </row>
     <row r="4">
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>26300.98007520668</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>10757.54539424647</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>11243.94068916909</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>7157.437972816224</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>11826.70033615935</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>10366.21784884679</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>7404.343382934052</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>11180.54176920004</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>6801.826871331337</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>7007.085417804727</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>11826.70033615935</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>10806.24636767546</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>7453.71859724894</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>8680.165570645773</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>1518.261799844056</v>
       </c>
     </row>
     <row r="5">
@@ -26509,7 +26511,7 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>3326.833140245338</v>
       </c>
     </row>
     <row r="6">
@@ -26531,37 +26533,37 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>1.818989403545856e-12</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>1.818989403545856e-12</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1.818989403545856e-12</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>3.637978807091713e-12</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>1.818989403545856e-12</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>1.818989403545856e-12</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>1.818989403545856e-12</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>-88581.27490450122</v>
       </c>
     </row>
   </sheetData>
@@ -26777,7 +26779,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>152.6070247818962</v>
       </c>
     </row>
     <row r="4">
@@ -26999,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>152.6070247818962</v>
       </c>
     </row>
     <row r="4">
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>0.6134955770126478</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>6.282961578080781</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>23.65178823278013</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>52.06967022947726</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>78.03893800442265</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>96.8142032694235</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>107.7244552371222</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>109.4675495453094</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>103.3671029013898</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>88.22143084389009</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>66.25062049212461</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>38.53749153952077</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>13.98003046117572</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>2.685576888372867</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>0.04907964616101181</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>0.3282490721723806</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>3.170194986506939</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>11.30155796733854</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>31.01233887572479</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>53.00502671127429</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>71.27179963988466</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>83.17082850613345</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>78.09880446550495</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>62.68117589579433</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>41.90070612502178</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>20.38023625294834</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>6.097082546710663</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>1.323074111080779</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>0.02159533369555136</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>0.2751929955083374</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2.446715905519584</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>8.275803901287096</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>19.45614478243946</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>31.97242256905956</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>40.91369316857593</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>43.13775292318419</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>42.11203357628952</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>38.89727903785121</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>33.2833419294811</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>23.04366074206633</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>12.3736777798567</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>4.795863385358934</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>1.175824617171987</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>0.01501052702772751</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_7_7.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_7_7.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-91972.95867545136</v>
+        <v>-103933.7789942933</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18876161.02893123</v>
+        <v>15387832.6189482</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>24669128.94555683</v>
+        <v>21413902.41217352</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1305094.213999053</v>
+        <v>3041214.657747575</v>
       </c>
     </row>
     <row r="11">
@@ -8218,22 +8218,22 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N5" t="n">
         <v>149.1184913377841</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q5" t="n">
         <v>144.4986984183922</v>
@@ -8297,25 +8297,25 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N6" t="n">
         <v>85.37211285416666</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R6" t="n">
         <v>71.01380490566048</v>
@@ -8379,16 +8379,16 @@
         <v>83.85861781084799</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>87.67503958280489</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>90.30175956594327</v>
       </c>
       <c r="N7" t="n">
         <v>82.99560390240157</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>89.9967499936978</v>
       </c>
       <c r="P7" t="n">
         <v>89.52320263194594</v>
@@ -8458,16 +8458,16 @@
         <v>143.0584031792374</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N8" t="n">
         <v>149.1184913377841</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P8" t="n">
         <v>150.3014472409252</v>
@@ -8528,34 +8528,34 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>15.79616555179249</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8610,28 +8610,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>52.4725364634484</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>83.85861781084799</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>87.67503958280489</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>90.30175956594327</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>82.99560390240157</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>89.9967499936978</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>89.52320263194594</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>98.47825105913979</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8692,22 +8692,22 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N11" t="n">
         <v>149.1184913377841</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q11" t="n">
         <v>144.4986984183922</v>
@@ -8765,34 +8765,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8847,28 +8847,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>52.4725364634484</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>83.85861781084799</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>87.67503958280489</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>90.30175956594327</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>82.99560390240157</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>89.9967499936978</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>89.52320263194594</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>98.47825105913979</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -8929,22 +8929,22 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q14" t="n">
         <v>144.4986984183922</v>
@@ -9014,13 +9014,13 @@
         <v>90.06034685691823</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P15" t="n">
         <v>87.08336481931465</v>
@@ -9169,19 +9169,19 @@
         <v>143.0584031792374</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q17" t="n">
         <v>144.4986984183922</v>
@@ -9245,22 +9245,22 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q18" t="n">
         <v>90.98815315591399</v>
@@ -9327,16 +9327,16 @@
         <v>83.85861781084799</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>87.67503958280489</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>90.30175956594327</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>82.99560390240157</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>89.9967499936978</v>
       </c>
       <c r="P19" t="n">
         <v>89.52320263194594</v>
@@ -9400,25 +9400,25 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q20" t="n">
         <v>144.4986984183922</v>
@@ -9482,25 +9482,25 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N21" t="n">
         <v>85.37211285416666</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R21" t="n">
         <v>71.01380490566048</v>
@@ -9570,7 +9570,7 @@
         <v>90.30175956594327</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>82.99560390240157</v>
       </c>
       <c r="O22" t="n">
         <v>89.9967499936978</v>
@@ -9579,7 +9579,7 @@
         <v>89.52320263194594</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>98.47825105913979</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9640,22 +9640,22 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q23" t="n">
         <v>144.4986984183922</v>
@@ -9725,16 +9725,16 @@
         <v>90.06034685691823</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q24" t="n">
         <v>90.98815315591399</v>
@@ -9874,28 +9874,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R26" t="n">
         <v>102.5176150018526</v>
@@ -9962,16 +9962,16 @@
         <v>90.06034685691823</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q27" t="n">
         <v>90.98815315591399</v>
@@ -10044,10 +10044,10 @@
         <v>90.30175956594327</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>82.99560390240157</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>89.9967499936978</v>
       </c>
       <c r="P28" t="n">
         <v>89.52320263194594</v>
@@ -10114,25 +10114,25 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R29" t="n">
         <v>102.5176150018526</v>
@@ -10199,19 +10199,19 @@
         <v>90.06034685691823</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R30" t="n">
         <v>71.01380490566048</v>
@@ -10272,22 +10272,22 @@
         <v>52.4725364634484</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>83.85861781084799</v>
       </c>
       <c r="L31" t="n">
         <v>87.67503958280489</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>90.30175956594327</v>
       </c>
       <c r="N31" t="n">
         <v>82.99560390240157</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>89.9967499936978</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>89.52320263194594</v>
       </c>
       <c r="Q31" t="n">
         <v>98.47825105913979</v>
@@ -10351,22 +10351,22 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q32" t="n">
         <v>144.4986984183922</v>
@@ -10436,13 +10436,13 @@
         <v>90.06034685691823</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P33" t="n">
         <v>87.08336481931465</v>
@@ -10588,22 +10588,22 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q35" t="n">
         <v>144.4986984183922</v>
@@ -10670,16 +10670,16 @@
         <v>89.59693533333335</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P36" t="n">
         <v>87.08336481931465</v>
@@ -10746,7 +10746,7 @@
         <v>52.4725364634484</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>83.85861781084799</v>
       </c>
       <c r="L37" t="n">
         <v>87.67503958280489</v>
@@ -10822,31 +10822,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>102.5176150018526</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10901,7 +10901,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K39" t="n">
         <v>89.59693533333335</v>
@@ -10916,7 +10916,7 @@
         <v>85.37211285416666</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P39" t="n">
         <v>87.08336481931465</v>
@@ -11059,25 +11059,25 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q41" t="n">
         <v>144.4986984183922</v>
@@ -11138,7 +11138,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K42" t="n">
         <v>89.59693533333335</v>
@@ -11147,19 +11147,19 @@
         <v>90.06034685691823</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P42" t="n">
         <v>87.08336481931465</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -11217,7 +11217,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>52.4725364634484</v>
       </c>
       <c r="K43" t="n">
         <v>83.85861781084799</v>
@@ -11296,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>102.5176150018526</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11372,31 +11372,31 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R45" t="n">
         <v>71.01380490566048</v>
@@ -11457,25 +11457,25 @@
         <v>52.4725364634484</v>
       </c>
       <c r="K46" t="n">
-        <v>51.88619524178843</v>
+        <v>83.85861781084799</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>87.67503958280489</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>90.30175956594327</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>82.99560390240157</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>89.9967499936978</v>
       </c>
       <c r="P46" t="n">
-        <v>56.23986070246484</v>
+        <v>89.52320263194594</v>
       </c>
       <c r="Q46" t="n">
-        <v>75.43459031707346</v>
+        <v>98.47825105913979</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -22810,22 +22810,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>143.0584031792374</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>153.2481697304917</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>149.7250515977273</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>149.5638374240964</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>150.3014472409252</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -22889,25 +22889,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>89.59693533333335</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>90.06034685691823</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>92.38712204931191</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>92.68755888888889</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>87.08336481931465</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.98815315591399</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>23.6778726709161</v>
@@ -22971,16 +22971,16 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>87.67503958280489</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>90.30175956594327</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>89.9967499936978</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -23050,16 +23050,16 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>153.2481697304917</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>149.7250515977273</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>149.5638374240964</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -23120,34 +23120,34 @@
         <v>87.41444223540508</v>
       </c>
       <c r="I9" t="n">
-        <v>64.689547</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J9" t="n">
-        <v>82.44445733333335</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>89.59693533333335</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>90.06034685691823</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>92.38712204931191</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>85.37211285416666</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>92.68755888888889</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>87.08336481931465</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.98815315591399</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>94.69167757657658</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S9" t="n">
         <v>133.5813703291298</v>
@@ -23202,28 +23202,28 @@
         <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
-        <v>82.54702393560747</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K10" t="n">
-        <v>83.85861781084799</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>87.67503958280489</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>90.30175956594327</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>82.99560390240157</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>89.9967499936978</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>89.52320263194594</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>98.47825105913979</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>122.6619794737488</v>
@@ -23284,22 +23284,22 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>143.0584031792374</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>153.2481697304917</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>149.7250515977273</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>149.5638374240964</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>150.3014472409252</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -23357,34 +23357,34 @@
         <v>87.41444223540508</v>
       </c>
       <c r="I12" t="n">
-        <v>64.689547</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J12" t="n">
-        <v>82.44445733333335</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>89.59693533333335</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>90.06034685691823</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>92.38712204931191</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>85.37211285416666</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>92.68755888888889</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>87.08336481931465</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>90.98815315591399</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>94.69167757657658</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S12" t="n">
         <v>133.5813703291298</v>
@@ -23439,28 +23439,28 @@
         <v>131.7634811092929</v>
       </c>
       <c r="J13" t="n">
-        <v>82.54702393560747</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K13" t="n">
-        <v>83.85861781084799</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>87.67503958280489</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>90.30175956594327</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>82.99560390240157</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>89.9967499936978</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>89.52320263194594</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>98.47825105913979</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>122.6619794737488</v>
@@ -23521,22 +23521,22 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>143.0584031792374</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>153.2481697304917</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>149.7250515977273</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>149.1184913377841</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>149.5638374240964</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>150.3014472409252</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -23606,13 +23606,13 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>92.38712204931191</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>85.37211285416666</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>92.68755888888889</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -23761,19 +23761,19 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>153.2481697304917</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>149.7250515977273</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>149.1184913377841</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>149.5638374240964</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>150.3014472409252</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -23837,22 +23837,22 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>89.59693533333335</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>90.06034685691823</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>92.38712204931191</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>85.37211285416666</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>92.68755888888889</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>87.08336481931465</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -23919,16 +23919,16 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>87.67503958280489</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>90.30175956594327</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>82.99560390240157</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>89.9967499936978</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -23992,25 +23992,25 @@
         <v>136.9537457384598</v>
       </c>
       <c r="J20" t="n">
-        <v>117.6798379423461</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>143.0584031792374</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>153.2481697304917</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>149.7250515977273</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>149.1184913377841</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>149.5638374240964</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>150.3014472409252</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -24074,25 +24074,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>89.59693533333335</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>90.06034685691823</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>92.38712204931191</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>92.68755888888889</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>87.08336481931465</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>90.98815315591399</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>23.6778726709161</v>
@@ -24162,7 +24162,7 @@
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>82.99560390240157</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -24171,7 +24171,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>98.47825105913979</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>122.6619794737488</v>
@@ -24232,22 +24232,22 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>143.0584031792374</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>153.2481697304917</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>149.7250515977273</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>149.1184913377841</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>149.5638374240964</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>150.3014472409252</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -24317,16 +24317,16 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>92.38712204931191</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>85.37211285416666</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>92.68755888888889</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>87.08336481931465</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -24466,28 +24466,28 @@
         <v>136.9537457384598</v>
       </c>
       <c r="J26" t="n">
-        <v>117.6798379423461</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>143.0584031792374</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>153.2481697304917</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>149.7250515977273</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>149.1184913377841</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>149.5638374240964</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>150.3014472409252</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>144.4986984183922</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>37.61298457733328</v>
@@ -24554,16 +24554,16 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>92.38712204931191</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>85.37211285416666</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>92.68755888888889</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>87.08336481931465</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -24636,10 +24636,10 @@
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>82.99560390240157</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>89.9967499936978</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
@@ -24706,25 +24706,25 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>143.0584031792374</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>153.2481697304917</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>149.7250515977273</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>149.1184913377841</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>149.5638374240964</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>150.3014472409252</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>144.4986984183922</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>37.61298457733328</v>
@@ -24791,19 +24791,19 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>92.38712204931191</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>85.37211285416666</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>92.68755888888889</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>87.08336481931465</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>90.98815315591399</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>23.6778726709161</v>
@@ -24864,22 +24864,22 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K31" t="n">
-        <v>83.85861781084799</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>90.30175956594327</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>89.9967499936978</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>89.52320263194594</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -24943,22 +24943,22 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>143.0584031792374</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>153.2481697304917</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>149.7250515977273</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>149.1184913377841</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>149.5638374240964</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>150.3014472409252</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -25028,13 +25028,13 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>92.38712204931191</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>85.37211285416666</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>92.68755888888889</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -25180,22 +25180,22 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>143.0584031792374</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>153.2481697304917</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>149.7250515977273</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>149.1184913377841</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>149.5638374240964</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>150.3014472409252</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -25262,16 +25262,16 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>90.06034685691823</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>92.38712204931191</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>85.37211285416666</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>92.68755888888889</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -25338,7 +25338,7 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K37" t="n">
-        <v>83.85861781084799</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -25414,31 +25414,31 @@
         <v>136.9537457384598</v>
       </c>
       <c r="J38" t="n">
-        <v>117.6798379423461</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>143.0584031792374</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>153.2481697304917</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>149.7250515977273</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>149.1184913377841</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>149.5638374240964</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>150.3014472409252</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>144.4986984183922</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>140.1305995791859</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S38" t="n">
         <v>164.8484195083599</v>
@@ -25493,7 +25493,7 @@
         <v>48.89338144820752</v>
       </c>
       <c r="J39" t="n">
-        <v>82.44445733333335</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25508,7 +25508,7 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>92.68755888888889</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -25651,25 +25651,25 @@
         <v>136.9537457384598</v>
       </c>
       <c r="J41" t="n">
-        <v>117.6798379423461</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>143.0584031792374</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>153.2481697304917</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>149.7250515977273</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>149.1184913377841</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>149.5638374240964</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>150.3014472409252</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -25730,7 +25730,7 @@
         <v>48.89338144820752</v>
       </c>
       <c r="J42" t="n">
-        <v>82.44445733333335</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25739,19 +25739,19 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>92.38712204931191</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>85.37211285416666</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>92.68755888888889</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>90.98815315591399</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>23.6778726709161</v>
@@ -25809,7 +25809,7 @@
         <v>131.7634811092929</v>
       </c>
       <c r="J43" t="n">
-        <v>82.54702393560747</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25879,49 +25879,49 @@
         <v>412.725494085322</v>
       </c>
       <c r="G44" t="n">
-        <v>408.4176323798642</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H44" t="n">
-        <v>314.5592583510934</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I44" t="n">
-        <v>113.3019575056797</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J44" t="n">
-        <v>65.61016771286884</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>65.01946517481471</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>56.4339664610682</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>42.00059636060509</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>39.65094179247474</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>46.19673452270656</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>62.08001639703511</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>78.24807792626756</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>101.5931080396651</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S44" t="n">
-        <v>150.8683890471842</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T44" t="n">
-        <v>218.5800195278046</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U44" t="n">
-        <v>253.1461226235864</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V44" t="n">
         <v>338.6857412035168</v>
@@ -25958,49 +25958,49 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G45" t="n">
-        <v>118.5309706766818</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H45" t="n">
-        <v>84.24424724889813</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I45" t="n">
-        <v>53.38798903266146</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J45" t="n">
-        <v>51.43211845760855</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>36.59190862205906</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>18.78854721703357</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>9.216293543178466</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>14.58875442338393</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>24.40218892352032</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>49.08744703089221</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>3.297636417967762</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S45" t="n">
-        <v>127.4842877824192</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T45" t="n">
-        <v>173.8908995719998</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U45" t="n">
-        <v>207.940916554449</v>
+        <v>207.9625118881446</v>
       </c>
       <c r="V45" t="n">
         <v>220.3146016126436</v>
@@ -26037,31 +26037,31 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G46" t="n">
-        <v>166.2963203660406</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H46" t="n">
-        <v>151.4770496226014</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I46" t="n">
-        <v>123.4876772080058</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J46" t="n">
-        <v>10.61834268971961</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>46.76134641422896</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>47.16400664275908</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>40.88357032611205</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>51.0994709558466</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>110.2883016938921</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S46" t="n">
-        <v>195.9920595939172</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T46" t="n">
-        <v>232.1860366962762</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U46" t="n">
-        <v>282.5693933134903</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V46" t="n">
         <v>263.319551727384</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>107575.4539424646</v>
+        <v>263009.8007520669</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>112439.4068916909</v>
+        <v>263009.8007520669</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>71574.37972816218</v>
+        <v>263009.8007520669</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>118267.0033615934</v>
+        <v>263009.8007520669</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>103662.1784884678</v>
+        <v>263009.8007520669</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>74043.4338293405</v>
+        <v>263009.8007520669</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>111805.4176920003</v>
+        <v>263009.8007520669</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>68018.26871331336</v>
+        <v>263009.8007520669</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>70070.85417804724</v>
+        <v>263009.8007520669</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>118267.0033615934</v>
+        <v>263009.8007520669</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>108062.4636767545</v>
+        <v>263009.8007520669</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>74537.18597248939</v>
+        <v>263009.8007520669</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>86801.65570645771</v>
+        <v>263009.8007520669</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>162036.8002562558</v>
+        <v>263009.8007520669</v>
       </c>
     </row>
   </sheetData>
@@ -26316,46 +26316,46 @@
         <v>26300.98007520668</v>
       </c>
       <c r="C2" t="n">
-        <v>10757.54539424647</v>
+        <v>26300.98007520668</v>
       </c>
       <c r="D2" t="n">
-        <v>11243.94068916909</v>
+        <v>26300.98007520667</v>
       </c>
       <c r="E2" t="n">
-        <v>7157.437972816224</v>
+        <v>26300.98007520668</v>
       </c>
       <c r="F2" t="n">
-        <v>11826.70033615936</v>
+        <v>26300.98007520667</v>
       </c>
       <c r="G2" t="n">
-        <v>10366.21784884679</v>
+        <v>26300.98007520668</v>
       </c>
       <c r="H2" t="n">
-        <v>7404.343382934054</v>
+        <v>26300.98007520668</v>
       </c>
       <c r="I2" t="n">
-        <v>11180.54176920004</v>
+        <v>26300.98007520668</v>
       </c>
       <c r="J2" t="n">
-        <v>6801.826871331336</v>
+        <v>26300.98007520668</v>
       </c>
       <c r="K2" t="n">
-        <v>7007.085417804728</v>
+        <v>26300.98007520668</v>
       </c>
       <c r="L2" t="n">
-        <v>11826.70033615936</v>
+        <v>26300.98007520668</v>
       </c>
       <c r="M2" t="n">
-        <v>10806.24636767546</v>
+        <v>26300.98007520668</v>
       </c>
       <c r="N2" t="n">
-        <v>7453.71859724894</v>
+        <v>26300.98007520668</v>
       </c>
       <c r="O2" t="n">
-        <v>8680.165570645775</v>
+        <v>26300.98007520668</v>
       </c>
       <c r="P2" t="n">
-        <v>17835.39316182352</v>
+        <v>26300.98007520668</v>
       </c>
     </row>
     <row r="3">
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>101571.5731262354</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>26300.98007520668</v>
+        <v>26300.98007520667</v>
       </c>
       <c r="C4" t="n">
-        <v>10757.54539424647</v>
+        <v>26300.98007520667</v>
       </c>
       <c r="D4" t="n">
-        <v>11243.94068916909</v>
+        <v>26300.98007520667</v>
       </c>
       <c r="E4" t="n">
-        <v>7157.437972816224</v>
+        <v>26300.98007520667</v>
       </c>
       <c r="F4" t="n">
-        <v>11826.70033615935</v>
+        <v>26300.98007520667</v>
       </c>
       <c r="G4" t="n">
-        <v>10366.21784884679</v>
+        <v>26300.98007520667</v>
       </c>
       <c r="H4" t="n">
-        <v>7404.343382934052</v>
+        <v>26300.98007520667</v>
       </c>
       <c r="I4" t="n">
-        <v>11180.54176920004</v>
+        <v>26300.98007520667</v>
       </c>
       <c r="J4" t="n">
-        <v>6801.826871331337</v>
+        <v>26300.98007520667</v>
       </c>
       <c r="K4" t="n">
-        <v>7007.085417804727</v>
+        <v>26300.98007520667</v>
       </c>
       <c r="L4" t="n">
-        <v>11826.70033615935</v>
+        <v>26300.98007520667</v>
       </c>
       <c r="M4" t="n">
-        <v>10806.24636767546</v>
+        <v>26300.98007520667</v>
       </c>
       <c r="N4" t="n">
-        <v>7453.71859724894</v>
+        <v>26300.98007520667</v>
       </c>
       <c r="O4" t="n">
-        <v>8680.165570645773</v>
+        <v>26300.98007520667</v>
       </c>
       <c r="P4" t="n">
-        <v>1518.261799844056</v>
+        <v>26300.98007520667</v>
       </c>
     </row>
     <row r="5">
@@ -26511,7 +26511,7 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>3326.833140245338</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-33627.6</v>
+        <v>-35055.19349414489</v>
       </c>
       <c r="C6" t="n">
-        <v>-33627.6</v>
+        <v>-35055.19349414489</v>
       </c>
       <c r="D6" t="n">
-        <v>-33627.6</v>
+        <v>-35055.1934941449</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>-1427.593494144897</v>
       </c>
       <c r="F6" t="n">
-        <v>1.818989403545856e-12</v>
+        <v>-1427.593494144901</v>
       </c>
       <c r="G6" t="n">
-        <v>1.818989403545856e-12</v>
+        <v>-1427.593494144897</v>
       </c>
       <c r="H6" t="n">
-        <v>1.818989403545856e-12</v>
+        <v>-1427.593494144897</v>
       </c>
       <c r="I6" t="n">
-        <v>3.637978807091713e-12</v>
+        <v>-1427.593494144897</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>-1427.593494144897</v>
       </c>
       <c r="K6" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>-1427.593494144897</v>
       </c>
       <c r="L6" t="n">
-        <v>1.818989403545856e-12</v>
+        <v>-1427.593494144897</v>
       </c>
       <c r="M6" t="n">
-        <v>1.818989403545856e-12</v>
+        <v>-1427.593494144897</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>-1427.593494144897</v>
       </c>
       <c r="O6" t="n">
-        <v>1.818989403545856e-12</v>
+        <v>-1427.593494144897</v>
       </c>
       <c r="P6" t="n">
-        <v>-88581.27490450122</v>
+        <v>-1427.593494144897</v>
       </c>
     </row>
   </sheetData>
@@ -26779,7 +26779,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>152.6070247818962</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>152.6070247818962</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.6134955770126478</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>6.282961578080781</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>23.65178823278013</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>52.06967022947726</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>78.03893800442265</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>96.8142032694235</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>107.7244552371222</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>109.4675495453094</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>103.3671029013898</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>88.22143084389009</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>66.25062049212461</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>38.53749153952077</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>13.98003046117572</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>2.685576888372867</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0.04907964616101181</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.3282490721723806</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>3.170194986506939</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>11.30155796733854</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>31.01233887572479</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>53.00502671127429</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>71.27179963988466</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>83.17082850613345</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>85.37211285416666</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>78.09880446550495</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>62.68117589579433</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>41.90070612502178</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>20.38023625294834</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>6.097082546710663</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>1.323074111080779</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0.02159533369555136</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2751929955083374</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>2.446715905519584</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>8.275803901287096</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>19.45614478243946</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>31.97242256905956</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>40.91369316857593</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>43.13775292318419</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>42.11203357628952</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>38.89727903785121</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>33.2833419294811</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>23.04366074206633</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>12.3736777798567</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>4.795863385358934</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>1.175824617171987</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0.01501052702772751</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
